--- a/pruebas/banxico-muestra-5rutas.xlsx
+++ b/pruebas/banxico-muestra-5rutas.xlsx
@@ -443,35 +443,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sector&gt;Financiamiento e información financiera de intermediarios financieros&gt;Cuadros estadisticos descontinuados&gt;Captacion&gt;Banca de desarrollo&gt;Regional&gt;Total, republica y agencias (metodologia 2008)&gt;Baja california sur&gt;Depósitos provenientes de saldos a favor en tarjeta de crédito por pagos en exceso sin interés</t>
+          <t>Sector&gt;Financiamiento e información financiera de intermediarios financieros&gt;Cuadros estadísticos descontinuados&gt;Balances financieros sectoriales&gt;Banca comercial (metodología 2000)&gt;Recursos y obligaciones&gt;Banca Interna&gt;9.2.1 De Intermediarios Financieros&gt;Recursos de la banca interna Saldos nominales en miles de pesos Recursos totales 9.2 Activos de larga duración disponibles para la venta 9.2.1 De intermediarios financieros</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sector&gt;Sistemas de pago&gt;Informacion anual SPEI por participante&gt;Monto (millones de pesos)</t>
+          <t>Sector&gt;Financiamiento e información financiera de intermediarios financieros&gt;Financiamiento&gt;Financiamiento otorgado por la banca comercial&gt;Crédito por la principal actividad del acreditado (total)&gt;Moneda nacional&gt;Comercio al por mayor de productos farmacéuticos, de perfumería, artículos para el esparcimiento, electrodomésticos meno</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sector&gt;Financiamiento e información financiera de intermediarios financieros&gt;Cuadros estadisticos descontinuados&gt;Captacion&gt;Banca comercial&gt;Regional&gt;Total, republica y agencias (metodologia 2008)&gt;Yucatan&gt;Depósitos provenientes de recaudación de contribuciones</t>
+          <t>Sector&gt;Financiamiento e información financiera de intermediarios financieros&gt;Captación&gt;Banca comercial&gt;por entidad federativa y municipio&gt;saldos de los principales instrumentos de captación&gt;Cuautitlán Izcalli&gt;Saldos de los instrumentos de captación de la Banca Comercial por entidad federativa y municipio 1/ *Instrumentos de captación *Saldos de captación 2/ Memo: Cuentas con saldos a favor de Tarjeta de Crédito 5/ México Cuautitlán Izcalli</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sector&gt;Financiamiento e información financiera de intermediarios financieros&gt;Balances Financieros sectoriales&gt;Recursos y Obligaciones&gt;Intermediarios financieros no bancarios&gt;Recursos y Obligaciones de otras sociedades de deposito no bancarias&gt;Entidades de ahorro y credito popular&gt;sociedades financieras populares&gt;Tí­tulos disponibles para la venta</t>
+          <t>Sector&gt;Financiamiento e información financiera de intermediarios financieros&gt;Cuadros estadísticos descontinuados&gt;Captación&gt;Banca comercial&gt;Regional&gt;Agencias en el exterior (metodología 2008)&gt;Número de Oficinas</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sector&gt;Financiamiento e información financiera de intermediarios financieros&gt;Cuadros estadisticos descontinuados&gt;Captacion&gt;Banca de desarrollo&gt;Regional&gt;Total, republica y agencias (metodologia 2008)&gt;Coahuila&gt;Bonos bancarios en circulación 5/</t>
+          <t>Sector&gt;Financiamiento e información financiera de intermediarios financieros&gt;Cuadros estadísticos descontinuados&gt;Captación&gt;Banca de desarrollo&gt;Regional&gt;Total, republica y agencias (metodología 2008)&gt;Guanajuato&gt;Pagarés con rendimiento liquidable al vencimiento&gt;Silao *Captación tradicional *Saldos de captación en moneda extranjera 2/ Pagarés con rendimiento liquidable al vencimiento</t>
         </is>
       </c>
     </row>
